--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKLM044-001 - Klaim Transaksi - Validasi Klaim - Klaim Pensiun.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKLM044-001 - Klaim Transaksi - Validasi Klaim - Klaim Pensiun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10067881-5386-4480-A543-3CFC012D0288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6146A3-C841-4F28-B7A5-D516DEC1E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Validasi Klaim</t>
+  </si>
+  <si>
+    <t>CLM2023010152</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -517,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,9 +626,6 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -672,13 +675,49 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="5"/>
+    <row r="3" spans="1:24" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f xml:space="preserve"> "Username : "&amp;G3&amp;",
+Password : bni1234,
+ID Peserta :  "&amp;N3</f>
+        <v>Username : 34104,
+Password : bni1234,
+ID Peserta :  CLM2023010152</v>
+      </c>
+      <c r="G3" s="4">
+        <v>34104</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="6"/>
